--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1223.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1223.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.40830252128611</v>
+        <v>1.198741555213928</v>
       </c>
       <c r="B1">
-        <v>3.252281425754428</v>
+        <v>2.012449502944946</v>
       </c>
       <c r="C1">
-        <v>2.706343481385492</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.898821944221648</v>
+        <v>2.03538179397583</v>
       </c>
       <c r="E1">
-        <v>1.186735307470691</v>
+        <v>1.208709955215454</v>
       </c>
     </row>
   </sheetData>
